--- a/data_uploader/Лист Microsoft Excel.xlsx
+++ b/data_uploader/Лист Microsoft Excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="268">
   <si>
     <t>RU</t>
   </si>
@@ -677,19 +677,181 @@
   </si>
   <si>
     <t>Internal condition</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Bestätigen</t>
+  </si>
+  <si>
+    <t>Zurück</t>
+  </si>
+  <si>
+    <t>Berechnen</t>
+  </si>
+  <si>
+    <t>Code erneut senden</t>
+  </si>
+  <si>
+    <t>Code senden</t>
+  </si>
+  <si>
+    <t>Code eingeben</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>Am wenigsten negativ</t>
+  </si>
+  <si>
+    <t>Am wenigsten positiv</t>
+  </si>
+  <si>
+    <t>Positiver</t>
+  </si>
+  <si>
+    <t>Das Negativste</t>
+  </si>
+  <si>
+    <t>Das positivste</t>
+  </si>
+  <si>
+    <t>Farbtabelle</t>
+  </si>
+  <si>
+    <t>Kompatibilität</t>
+  </si>
+  <si>
+    <t>Weiterhin</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>E-Mail-Bestätigung</t>
+  </si>
+  <si>
+    <t>Sprache wählen</t>
+  </si>
+  <si>
+    <t>Monat</t>
+  </si>
+  <si>
+    <t>aus der Datenbank löschen</t>
+  </si>
+  <si>
+    <t>Datenbank der Namen</t>
+  </si>
+  <si>
+    <t>Benachrichtigungszeit</t>
+  </si>
+  <si>
+    <t>Persönliches Konto</t>
+  </si>
+  <si>
+    <t>Benutzerdaten</t>
+  </si>
+  <si>
+    <t>PIN-Code erstellen</t>
+  </si>
+  <si>
+    <t>Geben Sie den PIN-Code ein</t>
+  </si>
+  <si>
+    <t>PIN vergessen?</t>
+  </si>
+  <si>
+    <t>Wiederholen Sie den PIN-Code</t>
+  </si>
+  <si>
+    <t>PIN-Code-Wiederherstellung</t>
+  </si>
+  <si>
+    <t>Registrierung</t>
+  </si>
+  <si>
+    <t>speichern</t>
+  </si>
+  <si>
+    <t>Basisabonnement</t>
+  </si>
+  <si>
+    <t>Abonnement</t>
+  </si>
+  <si>
+    <t>Verlängertes Abonnement</t>
+  </si>
+  <si>
+    <t>basisabonnement_x000D_
++_x000D_
+Detailbeschreibung</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Woche</t>
+  </si>
+  <si>
+    <t>Samstag</t>
+  </si>
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>Donnerstag</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Ihr persönlicher Leitfaden für ein harmonisches Leben - ab heute!</t>
+  </si>
+  <si>
+    <t>Außenwelt</t>
+  </si>
+  <si>
+    <t>Interner Zustand</t>
+  </si>
+  <si>
+    <t>TT.MM.JJJJ</t>
+  </si>
+  <si>
+    <t>Dein Geburtsdatum</t>
+  </si>
+  <si>
+    <t>Ihr Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -712,11 +874,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -997,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,9 +1172,10 @@
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1024,8 +1188,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1038,8 +1205,11 @@
       <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1052,8 +1222,11 @@
       <c r="D3" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -1066,8 +1239,11 @@
       <c r="D4" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1256,11 @@
       <c r="D5" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1273,11 @@
       <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1290,11 @@
       <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,8 +1307,11 @@
       <c r="D8" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -1136,8 +1324,11 @@
       <c r="D9" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -1150,8 +1341,11 @@
       <c r="D10" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -1164,8 +1358,11 @@
       <c r="D11" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -1178,8 +1375,11 @@
       <c r="D12" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -1192,8 +1392,11 @@
       <c r="D13" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -1206,8 +1409,11 @@
       <c r="D14" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -1220,8 +1426,11 @@
       <c r="D15" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -1234,8 +1443,11 @@
       <c r="D16" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -1248,8 +1460,11 @@
       <c r="D17" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -1262,8 +1477,11 @@
       <c r="D18" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -1276,8 +1494,11 @@
       <c r="D19" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1290,8 +1511,11 @@
       <c r="D20" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1304,8 +1528,11 @@
       <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1318,8 +1545,11 @@
       <c r="D22" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1332,8 +1562,11 @@
       <c r="D23" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -1346,8 +1579,11 @@
       <c r="D24" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -1360,8 +1596,11 @@
       <c r="D25" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>139</v>
       </c>
@@ -1374,8 +1613,11 @@
       <c r="D26" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>133</v>
       </c>
@@ -1388,8 +1630,11 @@
       <c r="D27" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>129</v>
       </c>
@@ -1402,8 +1647,11 @@
       <c r="D28" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>131</v>
       </c>
@@ -1416,8 +1664,11 @@
       <c r="D29" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1430,8 +1681,11 @@
       <c r="D30" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1444,8 +1698,11 @@
       <c r="D31" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1458,8 +1715,11 @@
       <c r="D32" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
@@ -1472,8 +1732,11 @@
       <c r="D33" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
@@ -1486,8 +1749,11 @@
       <c r="D34" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1500,8 +1766,11 @@
       <c r="D35" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
@@ -1514,8 +1783,11 @@
       <c r="D36" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>143</v>
       </c>
@@ -1528,8 +1800,11 @@
       <c r="D37" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>135</v>
       </c>
@@ -1542,8 +1817,11 @@
       <c r="D38" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>137</v>
       </c>
@@ -1556,8 +1834,11 @@
       <c r="D39" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
@@ -1570,8 +1851,11 @@
       <c r="D40" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -1584,8 +1868,11 @@
       <c r="D41" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
@@ -1598,8 +1885,11 @@
       <c r="D42" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -1612,8 +1902,11 @@
       <c r="D43" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -1626,8 +1919,11 @@
       <c r="D44" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -1640,8 +1936,11 @@
       <c r="D45" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
@@ -1654,8 +1953,11 @@
       <c r="D46" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>103</v>
       </c>
@@ -1668,8 +1970,11 @@
       <c r="D47" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
@@ -1682,8 +1987,11 @@
       <c r="D48" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -1696,8 +2004,11 @@
       <c r="D49" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -1710,8 +2021,11 @@
       <c r="D50" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>111</v>
       </c>
@@ -1724,8 +2038,11 @@
       <c r="D51" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>78</v>
       </c>
@@ -1738,8 +2055,11 @@
       <c r="D52" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +2072,11 @@
       <c r="D53" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -1766,8 +2089,11 @@
       <c r="D54" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -1779,6 +2105,14 @@
       </c>
       <c r="D55" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="E55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1788,5 +2122,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>